--- a/data/financial_statements/sofp/RF.xlsx
+++ b/data/financial_statements/sofp/RF.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2066 +584,2114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>11227000000</v>
+      </c>
+      <c r="C2">
         <v>15666000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20500000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>27945000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>29411000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>27507000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25594000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24920000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>17956000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13473000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13198000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5255000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4114000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5067000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4488000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3807000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3538000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3495000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4286000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3185000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3981000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3954000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4309000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4500000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5575000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4358000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4354000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4500000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5457000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5114000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3865000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>6133000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4110000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4886000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4919000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5313000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5384000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3978000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4382000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5054000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>107637000000</v>
+      </c>
+      <c r="C3">
         <v>110103000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>113510000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>116887000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>117038000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>110587000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>109588000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>109522000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>103306000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>101090000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>102965000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>92708000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>87207000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>87909000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>88085000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>88090000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>86529000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>85167000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>84763000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>82947000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>83679000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>82976000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>84281000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>84128000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>85616000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>84991000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>85768000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>85620000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>86280000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>85831000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>83715000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>84082000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>81165000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>81129000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>81025000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>80443000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>80020000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>79334000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>78901000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>78689000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1718000000</v>
+      </c>
+      <c r="C4">
         <v>1744000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1768000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1794000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1814000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1805000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1825000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1852000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1897000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1896000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1929000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1935000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1960000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1944000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1950000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2026000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2045000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2051000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2050000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2065000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2064000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2057000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2060000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2088000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2096000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2075000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2091000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2134000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2152000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2122000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2147000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2174000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2193000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2192000000</v>
-      </c>
-      <c r="AI4">
-        <v>2194000000</v>
       </c>
       <c r="AJ4">
         <v>2194000000</v>
       </c>
       <c r="AK4">
+        <v>2194000000</v>
+      </c>
+      <c r="AL4">
         <v>2216000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2218000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2228000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2252000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>28734000000</v>
+      </c>
+      <c r="C5">
         <v>28943000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>29888000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>30248000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>29380000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>29931000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30283000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>28151000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>28276000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>28197000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>25153000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>25071000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>23938000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>24361000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24114000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>25237000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>24211000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>24195000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>24503000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>24696000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>25061000000</v>
-      </c>
-      <c r="V5">
-        <v>25362000000</v>
       </c>
       <c r="W5">
         <v>25362000000</v>
       </c>
       <c r="X5">
+        <v>25362000000</v>
+      </c>
+      <c r="Y5">
         <v>25298000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>25143000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>25290000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>25140000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>24996000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>24656000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>24715000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>24739000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>25008000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>24228000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>24601000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>24238000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>23932000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>23838000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>24018000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>24426000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>27097000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>6794000000</v>
+      </c>
+      <c r="C6">
         <v>6814000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6798000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6582000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6467000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5692000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5681000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5696000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5608000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5583000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5579000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5197000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5295000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5263000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5267000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5323000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5362000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>5357000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>5422000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5427000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5417000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5426000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5448000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5439000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>5449000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>5348000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>5338000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>5363000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>5389000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>5335000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>5352000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>5327000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>5348000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>5380000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>5373000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>5398000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>5408000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>5404000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>5410000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>5383000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>10337000000</v>
+      </c>
+      <c r="C7">
         <v>10194000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8944000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8571000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8239000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8138000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8233000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8110000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8302000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8414000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8444000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8631000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7840000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8670000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8102000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8126000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7541000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7808000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7819000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7778000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>8073000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7450000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>7492000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>7592000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>7664000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>7473000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>7875000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>7426000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>7573000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>6786000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5902000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>5856000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>6629000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5924000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>5889000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5966000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5914000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>5890000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>7742000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>6297000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>47583000000</v>
+      </c>
+      <c r="C8">
         <v>47695000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>47398000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>47195000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>45900000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>45566000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>46022000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>43809000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>44083000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>44090000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>41105000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>40834000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>39033000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>40238000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>39433000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>40712000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>39159000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>39411000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>39794000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>39966000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>40615000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>40295000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>40362000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>40417000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>40352000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>40186000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>40444000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>39919000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>39770000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>38958000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>38140000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>38365000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>38398000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>38097000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>37694000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>37490000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>37376000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>37530000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>39806000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>41029000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>155220000000</v>
+      </c>
+      <c r="C9">
         <v>157798000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>160908000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>164082000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>162938000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>156153000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>155610000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>153331000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>147389000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>145180000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>144070000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>133542000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>126240000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>128147000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>127518000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>128802000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>125688000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>124578000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>124557000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>122913000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>124294000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>123271000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>124643000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>124545000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>125968000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>125177000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>126212000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>125539000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>126050000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>124789000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>121855000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>122447000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>119563000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>119226000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>118719000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>117933000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>117396000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>116864000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>118707000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>119718000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10">
         <v>3150000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2050000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>5401000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4250000000</v>
-      </c>
-      <c r="P10">
-        <v>1600000000</v>
       </c>
       <c r="Q10">
         <v>1600000000</v>
       </c>
       <c r="R10">
+        <v>1600000000</v>
+      </c>
+      <c r="S10">
         <v>3250000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1400000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>500000000</v>
-      </c>
-      <c r="V10">
-        <v>600000000</v>
       </c>
       <c r="W10">
         <v>600000000</v>
       </c>
-      <c r="AA10">
+      <c r="X10">
+        <v>600000000</v>
+      </c>
+      <c r="AB10">
         <v>2000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>10000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1846000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2085000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2253000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1893000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1818000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1981000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2182000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1773000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>3877000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1830000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>131743000000</v>
+      </c>
+      <c r="C11">
         <v>135378000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>138263000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>141022000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>139072000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>132039000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>131484000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>129602000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>122479000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>118445000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>116779000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>100030000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>97475000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>94305000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>94971000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>95720000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>94491000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>93255000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>95283000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>96990000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>96889000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>97591000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>98093000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>99424000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>99035000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>99289000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>97245000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>98154000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>98430000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>97178000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>97075000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>97477000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>94200000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>94130000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>93822000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>93393000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>92453000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>92321000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>92454000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>94133000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
         <v>97000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>355000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3150000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3922000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>131743000000</v>
+      </c>
+      <c r="C13">
         <v>135378000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>138263000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>141022000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>139072000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>132039000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>131484000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>129602000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>122479000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>118445000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>116779000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>103180000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>99525000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>99706000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>99221000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>97320000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>96091000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>96505000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>96683000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>96990000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>97389000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>98191000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>98693000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>99424000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>99035000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>99289000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>97247000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>98154000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>98440000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>97178000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>98921000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>99562000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>96453000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>96023000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>95640000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>95374000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>94635000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>94094000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>96331000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>95963000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2284000000</v>
+      </c>
+      <c r="C14">
         <v>2274000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2319000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2343000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2407000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2451000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2870000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2916000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3569000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4919000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>6408000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10105000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>7879000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9128000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>9213000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>12957000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>12424000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>11178000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>9890000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>7949000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>8132000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>6102000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>6765000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>6010000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>7763000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>6054000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>8968000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>7851000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>8349000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>7364000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>3602000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>3208000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3462000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3813000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3824000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>4226000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>4830000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>4838000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4856000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>5847000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15">
         <v>1801000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>5242000000</v>
+      </c>
+      <c r="C16">
         <v>4973000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3819000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3735000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3133000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3040000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3004000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2951000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3230000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3912000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3255000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2925000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2541000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2732000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2476000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3002000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2083000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2125000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2207000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2108000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2581000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2354000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2292000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2389000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2506000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2469000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2612000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2323000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2417000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>3295000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>2433000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2626000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2775000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2230000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2226000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2201000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2163000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2443000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2191000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>2168000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>7526000000</v>
+      </c>
+      <c r="C17">
         <v>7247000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6138000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>6078000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5540000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5491000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5874000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5867000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6799000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8831000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9663000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>13030000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>10420000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11860000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>11689000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>15959000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>14507000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>13303000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>12097000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>10057000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>10713000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>8456000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>9057000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>8399000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>10269000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>8523000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>11580000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>10174000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>10766000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>10659000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>6035000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>5834000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>6237000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>6043000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>6050000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>6427000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>6993000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>7281000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>7047000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>8015000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>139269000000</v>
+      </c>
+      <c r="C18">
         <v>142625000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>144401000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>147100000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>144612000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>137530000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>137358000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>135469000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>129278000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>127276000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>126442000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>116210000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>109945000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>111566000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>110910000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>113279000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>110598000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>109808000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>108780000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>107047000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>108102000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>106647000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>107750000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>107823000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>109304000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>107812000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>108827000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>108328000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>109206000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>107837000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>104956000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>105396000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>102690000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>102066000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>101690000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>101801000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>101628000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>101375000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>103378000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>103978000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>11988000000</v>
+      </c>
+      <c r="C19">
         <v>11976000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>11962000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11983000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>12189000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>12479000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12467000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12740000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>12731000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>12714000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>12703000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>12695000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>12685000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12803000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>13380000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>13584000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>13766000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>14122000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>15389000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>15639000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>15858000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>16344000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>16828000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>16959000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>17092000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>17339000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>17539000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>17716000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>17883000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>18019000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>18355000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>18604000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>18767000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>19069000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>19121000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>19179000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>19216000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>19248000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>19440000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>19643000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1659000000</v>
@@ -2550,7 +2712,7 @@
         <v>1659000000</v>
       </c>
       <c r="H20">
-        <v>1656000000</v>
+        <v>1659000000</v>
       </c>
       <c r="I20">
         <v>1656000000</v>
@@ -2562,7 +2724,7 @@
         <v>1656000000</v>
       </c>
       <c r="L20">
-        <v>1310000000</v>
+        <v>1656000000</v>
       </c>
       <c r="M20">
         <v>1310000000</v>
@@ -2574,7 +2736,7 @@
         <v>1310000000</v>
       </c>
       <c r="P20">
-        <v>820000000</v>
+        <v>1310000000</v>
       </c>
       <c r="Q20">
         <v>820000000</v>
@@ -2616,42 +2778,45 @@
         <v>820000000</v>
       </c>
       <c r="AD20">
+        <v>820000000</v>
+      </c>
+      <c r="AE20">
         <v>836000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>852000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>868000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>884000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>900000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>920000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>442000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>450000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>458000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>466000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>474000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>10000000</v>
@@ -2693,7 +2858,7 @@
         <v>10000000</v>
       </c>
       <c r="O21">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="P21">
         <v>11000000</v>
@@ -2705,7 +2870,7 @@
         <v>11000000</v>
       </c>
       <c r="S21">
-        <v>12000000</v>
+        <v>11000000</v>
       </c>
       <c r="T21">
         <v>12000000</v>
@@ -2723,7 +2888,7 @@
         <v>12000000</v>
       </c>
       <c r="Y21">
-        <v>13000000</v>
+        <v>12000000</v>
       </c>
       <c r="Z21">
         <v>13000000</v>
@@ -2741,7 +2906,7 @@
         <v>13000000</v>
       </c>
       <c r="AE21">
-        <v>14000000</v>
+        <v>13000000</v>
       </c>
       <c r="AF21">
         <v>14000000</v>
@@ -2768,134 +2933,140 @@
         <v>14000000</v>
       </c>
       <c r="AN21">
+        <v>14000000</v>
+      </c>
+      <c r="AO21">
         <v>15000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>7004000000</v>
+      </c>
+      <c r="C22">
         <v>6531000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6314000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5915000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5550000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5296000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4836000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4235000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3770000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3330000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2978000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3364000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3751000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3534000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3299000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3066000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2828000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2582000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2182000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1923000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1628000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1279000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1089000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>873000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>666000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>465000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>242000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>62000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-115000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-400000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-658000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-943000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-1177000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-1272000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-1597000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-1897000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-2216000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-2443000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-2736000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-3003000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1371000000</v>
@@ -2952,7 +3123,7 @@
         <v>1371000000</v>
       </c>
       <c r="T23">
-        <v>1377000000</v>
+        <v>1371000000</v>
       </c>
       <c r="U23">
         <v>1377000000</v>
@@ -3014,519 +3185,531 @@
       <c r="AN23">
         <v>1377000000</v>
       </c>
+      <c r="AO23">
+        <v>1377000000</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>14292000000</v>
+      </c>
+      <c r="C24">
         <v>13514000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>14848000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>15323000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>16667000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>16964000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>16593000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>16206000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>16455000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>16248000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>15972000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>16022000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>14985000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>15271000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>15298000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>14703000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>14270000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>13950000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>14957000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>15046000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>15372000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>15804000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>16073000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>15902000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>15844000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>16545000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>16565000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>16391000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>16024000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>16116000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>16047000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>16183000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>15989000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>16260000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>16109000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>15690000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>15318000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>15031000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>14863000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>15266000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>15951000000</v>
+      </c>
+      <c r="C25">
         <v>15173000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>16507000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>16982000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>18326000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>18623000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>18252000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17862000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>18111000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>17904000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>17628000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>17332000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>16295000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>16581000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>16608000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>15523000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>15090000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>14770000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>15777000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>15866000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>16192000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>16624000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>16893000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>16722000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>16664000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>17365000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>17385000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>17211000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>16844000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>16952000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>16899000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>17051000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>16873000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>17160000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>17029000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>16132000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>15768000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>15489000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>15329000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>15740000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>155220000000</v>
+      </c>
+      <c r="C26">
         <v>157798000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>160908000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>164082000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>162938000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>156153000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>155610000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>153331000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>147389000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>145180000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>144070000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>133542000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>126240000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>128147000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>127518000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>128802000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>125688000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>124578000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>124557000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>122913000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>124294000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>123271000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>124643000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>124545000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>125968000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>125177000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>126212000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>125539000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>126050000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>124789000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>121855000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>122447000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>119563000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>119226000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>118719000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>117933000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>117396000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>116864000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>118707000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>119718000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>934000000</v>
+      </c>
+      <c r="C27">
         <v>934432000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>934341000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>932893000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>941908000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>954570000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>954514000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>960724000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>960474000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>960245000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>960079000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>957474000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>957246000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>964471000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1003820000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1012934000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1024826000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1055426000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1114383000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1122558000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1134068000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1164880000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1199267000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1205119000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1214581000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1236341000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1259015000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1274813000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1297331000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1304387000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1330622000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1342586000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1353942000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1378627000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1378270000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1378187000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1377721000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1377553000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1395234000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1413378000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1403000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>1403000</v>
       </c>
       <c r="D28">
+        <v>1403000</v>
+      </c>
+      <c r="E28">
         <v>1750000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1403000</v>
-      </c>
-      <c r="F28">
-        <v>1750000</v>
       </c>
       <c r="G28">
         <v>1750000</v>
       </c>
       <c r="H28">
-        <v>1850000</v>
+        <v>1750000</v>
       </c>
       <c r="I28">
         <v>1850000</v>
@@ -3538,7 +3721,7 @@
         <v>1850000</v>
       </c>
       <c r="L28">
-        <v>1500000</v>
+        <v>1850000</v>
       </c>
       <c r="M28">
         <v>1500000</v>
@@ -3550,7 +3733,7 @@
         <v>1500000</v>
       </c>
       <c r="P28">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="Q28">
         <v>1000000</v>
@@ -3610,7 +3793,7 @@
         <v>1000000</v>
       </c>
       <c r="AJ28">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="AK28">
         <v>500000</v>
@@ -3624,370 +3807,382 @@
       <c r="AN28">
         <v>500000</v>
       </c>
+      <c r="AO28">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>9157000000</v>
+      </c>
+      <c r="C29">
         <v>8359000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>9709000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>10400000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11859000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>12931000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>12571000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>12166000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>12503000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>12321000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>12049000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>12135000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>11000000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>11318000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>11341000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>10200000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>9728000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>9413000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>10355000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>10439000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>10775000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>11198000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>11445000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>11283000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>11215000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>12017000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>12047000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>11848000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>11455000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>11617000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>11547000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>11724000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>11525000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>11780000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>11656000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>10734000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>10360000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>10085000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>9919000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>10357000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-8943000000</v>
+      </c>
+      <c r="C30">
         <v>-13392000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-18181000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-25602000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-26907000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-25056000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-22724000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-22004000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-14032000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-8554000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-6790000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>8000000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>7687000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4061000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4725000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>9150000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>8886000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>7683000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>5604000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4764000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4151000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2148000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2456000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1510000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2188000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1696000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>4614000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>3351000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2892000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2250000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-263000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-2925000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-648000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-1073000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-1095000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-1087000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-554000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>860000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>474000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>793000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2284000000</v>
+      </c>
+      <c r="C31">
         <v>2274000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2319000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2343000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2504000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2451000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2870000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2916000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3924000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>4919000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>6408000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>13255000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>11801000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>9128000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>9213000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>12957000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>12424000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>11178000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>9890000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>7949000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>8132000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>6102000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>6765000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>6010000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>7763000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>6054000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>8968000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>7851000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>8349000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>7364000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>3602000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>3208000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>3462000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>3813000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3824000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>4226000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>4830000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>4838000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>4856000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>5847000000</v>
       </c>
     </row>
